--- a/Excels/CreateCustomer.xlsx
+++ b/Excels/CreateCustomer.xlsx
@@ -506,7 +506,9 @@
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2"/>
+      <c r="K2" t="n">
+        <v>361.0</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -539,7 +541,9 @@
       <c r="J3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K3"/>
+      <c r="K3" t="n">
+        <v>5273.0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
